--- a/data/experiments/sampling/combsampling/combsampling_model_metrics.xlsx
+++ b/data/experiments/sampling/combsampling/combsampling_model_metrics.xlsx
@@ -1,38 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -339,13 +420,619 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>imputed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>train_test_split</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>test_data</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tomeklinks</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>NearMiss</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Neighbourhood Cleaning</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ClusterCentroid_8</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ClusterCentroid_4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ClusterCentroid_2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Smote_Tomek_1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Smote_Tomek_2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Smote_Tomek_4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Smote_Tomek_8</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Smote_NC_1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Smote_NC_2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Smote_NC_4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Smote_NC_8</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Smote_CC_1_8</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Smote_CC_2_8</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Smote_CC_4_8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>roc_auc_test</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.5912520208370756</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7019938925812824</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.5984372193281839</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6866355308065385</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5749955092509431</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6022992635171547</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.6449613795581103</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6510687982755524</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.6173881803484821</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.6846596012214836</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.6805281120890964</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.6705586491826837</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.6437039698221663</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6870846057122328</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.6866355308065385</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>roc_auc_train</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5065264208425255</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5815342998214098</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.653193612774451</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5305967013341738</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6850772139930665</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.8357232902615821</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7997688832860594</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7595335644500473</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6240939174283012</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.8648229856077319</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.8133601218615401</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.768633785061456</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.6574745246349406</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.8257826452358441</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.7953960500052526</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.7069019855026788</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>f1_test</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1452513966480447</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3902439024390244</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1555555555555555</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4137931034482759</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.1836734693877551</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2950819672131147</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.202020202020202</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2444444444444444</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.3902439024390244</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>f1_train</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1737373737373737</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4042553191489361</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1194029850746269</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4173913043478261</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4383561643835616</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4606741573033708</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.3658536585365854</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.4502164502164502</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.396039603960396</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.3963963963963964</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.4354838709677419</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>recall_test</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>recall_train</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01754385964912281</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7543859649122807</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.07017543859649122</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.7192982456140351</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.9122807017543859</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.7719298245614035</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.3508771929824561</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.8596491228070176</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.7719298245614035</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>quantity_change</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Counter({0.0: 25})</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Counter({0.0: 611})</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Counter({0.0: 114})</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Counter({0.0: 212})</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Counter({0.0: 440})</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Counter({0.0: 554})</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Counter()</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Counter()</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Counter()</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Counter()</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Counter()</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Counter()</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Counter()</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Counter()</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Counter()</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Counter()</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Counter()</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>